--- a/demo-report/scorecard-jee-example-app-1-0-0-ear.xlsx
+++ b/demo-report/scorecard-jee-example-app-1-0-0-ear.xlsx
@@ -26,13 +26,13 @@
     <t>jee-example-app-1.0.0.ear/jee-example-services.jar</t>
   </si>
   <si>
-    <t>JEE Example EJB Services 1.0.0, Weblogic EJB XML, EJB 2.x - Local Home, Maven POM, EJB 2.x - Local Object, EJB XML, Weblogic Startup Service, ArchiveMeta Manifest, JMX MBean, Weblogic ApplicationLifecycleListener, proprietary class, must be migrated., EJB 1.x/2.x - Home Interface, EJB 1.x/2.x - Remote Interface, EJB 1.x/2.x - Session Bean</t>
+    <t>JEE Example EJB Services 1.0.0, Weblogic EJB XML, EJB 2.x - Local Home, EJB 2.x - Local Object, Maven POM, EJB XML, Weblogic Startup Service, ArchiveMeta Manifest, Weblogic ApplicationLifecycleListener, proprietary class, must be migrated., JMX MBean, EJB 1.x/2.x - Home Interface, EJB 1.x/2.x - Remote Interface, EJB 1.x/2.x - Session Bean</t>
   </si>
   <si>
     <t>jee-example-app-1.0.0.ear/log4j-1.2.6.jar</t>
   </si>
   <si>
-    <t>Log4j 1.2.6log4j 1.2.6log4j 1.2.6, Maven POM, ArchiveMeta Manifest</t>
+    <t>Log4j 1.2.6log4j 1.2.6, ArchiveMeta Manifest</t>
   </si>
   <si>
     <t>jee-example-app-1.0.0.ear/migration-support-1.0.0.jar</t>
